--- a/matches_output.xlsx
+++ b/matches_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LNHD1246\Desktop\RCAR Econsignation - Surya\RCAR Econsignation - Surya (copy)\Econsignation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7581DF-27AA-4308-A0F0-480ED4BA07C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B4B97-354D-4F9E-85DE-7F93B6867E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
   <si>
     <t>word</t>
   </si>
@@ -67,49 +67,106 @@
     <t>is_حكم</t>
   </si>
   <si>
-    <t>2.82.382</t>
-  </si>
-  <si>
-    <t>2015</t>
+    <t>regex_expression</t>
+  </si>
+  <si>
+    <t>final_extraction</t>
+  </si>
+  <si>
+    <t>2.22.645</t>
+  </si>
+  <si>
+    <t>^2\.(0[0-9]|1[0-9]|2[0-9]|3[0-9])\.\d{3}$</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>^(19(8[0-9]|9[0-9])|20(0[0-9]|1[0-9]|2[0-5]))$</t>
   </si>
   <si>
     <t>1982</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2017</t>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>ي</t>
-  </si>
-  <si>
-    <t>رتم 1.09.02 الصادر ي 22 صفر 1430 (18 فبراير 2009) بتنفيذ القانون رقم 45.08 المتعلق بالتنظيم</t>
-  </si>
-  <si>
-    <t>باجريدة</t>
-  </si>
-  <si>
-    <t>ﺗﺴﺘﻮﺟﻪ ﺍﻟﻌﻤﻠــــــﻴﺔ للشئور باجريدة عدد عدد 7139 بتاريخ 05 ربيع الاخر 1444 للوافق 31 آكتوبو 2022.</t>
+    <t>ة</t>
+  </si>
+  <si>
+    <t>ﺍﻻﻳـ ان المدير ة العامة للوكالة المستقلة الجماعية لتوزيع الماء والكهرباء بغاس ﻧﻈﺮ ﺁ ﻟﻠﻈﻬﻴﺮ ﺍﻟﺸﺮﻳﻒ</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>بالجريدة</t>
   </si>
   <si>
-    <t>على القرار المنشور بالجريدة ﺍﻟﺮﺳﻤﻴﺔ ﻋﺪﺩ 7139 ﺑﺘﺎﺭﻳﺦ 31 ﺍﻛﺘﻮﺑﺮ 2022 . ﺭﻗﻢ ﺍﻟﻘﻄﻌﺔ ﺍﻻﺳﻢ ﺍﻟﻜﺎﻣﻞ</t>
+    <t>المرسوم، الذي ينشر بالجريدة الرسمية، ﺍﻟﻤﺎﺩﺓ ﺍﻷﻭﻟﻰ ﺇﻟﻰ ﻭﺯﻳﺮ ﺍﻟﺪﺍﺧﻠﻴﺔ ﻭﺭﺋﻴﺲ ﻣﺠﻠﺲ ﺟﻤﺎﻋﺔ ﺗﻴﻐﻤﻲ، ﻛﻞ ﻭﺍﺣﺪ</t>
+  </si>
+  <si>
+    <t>ل</t>
+  </si>
+  <si>
+    <t>الملك المذكور المملوك ل احسان سبتي ﺑﻨﺖ ﺣﻤﻴﺪ ﻷﺩﺍﺀ ﻣﺒﻠﻎ ﻗﺪﺭﻩ 2607523.81 ﺩﺭﻫﻢ ﻟﻔﺎﺋﺪﺓ: -مديرية الضرائب</t>
+  </si>
+  <si>
+    <t>الرسمية،</t>
+  </si>
+  <si>
+    <t>الذي ينشر بالجريدة الرسمية، ﺍﻟﻤﺎﺩﺓ ﺍﻷﻭﻟﻰ ﺇﻟﻰ ﻭﺯﻳﺮ ﺍﻟﺪﺍﺧﻠﻴﺔ ﻭﺭﺋﻴﺲ ﻣﺠﻠﺲ ﺟﻤﺎﻋﺔ ﺗﻴﻐﻤﻲ، ﻛﻞ ﻭﺍﺣﺪ ﻣﻨﻬﻤﺎ</t>
+  </si>
+  <si>
+    <t>رسم</t>
+  </si>
+  <si>
+    <t>بنسخة موجزة من رسم - ﺣﻮﺭﻳﺔ ﺑﻨﺖ ﻣﺤﻤﺪ ﺑﻦ ﻋﺒﺎﺱ ﻣﺴﻔﺮ ﺑﻨﺴﺒﺔ ﺍﻟﻮﻓﺎﺓ ﻣﺆﺭﺧﺔ ﻓﻰ 2016/12/14</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>ﻃﺮﻳﻖ عرضه 30 م ما بين العلامات ( ب4 – ب 3) و ( ب6 –</t>
+  </si>
+  <si>
+    <t>درهم</t>
+  </si>
+  <si>
+    <t>858.00 040 1 درهم ﻣﺴﺤﻮﺏ ﻋﻠﻰ ﺍﻟﺘﺠﺎﺭﻱ</t>
+  </si>
+  <si>
+    <t>ومائة وائنان وخمسون درهم و ستون سنتيما</t>
+  </si>
+  <si>
+    <t>درهم،</t>
+  </si>
+  <si>
+    <t>2000 و 1000 درهم، دون ان تقل</t>
+  </si>
+  <si>
+    <t>مقرر</t>
+  </si>
+  <si>
+    <t>وبعد الاطلاع على مقرر مجلس جماعة تيغى</t>
+  </si>
+  <si>
+    <t>وبعد الاطلاع على مقرر الجلس الإدارى للوكالة</t>
   </si>
 </sst>
 </file>
@@ -472,17 +529,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
@@ -496,9 +553,11 @@
     <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,16 +603,22 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -568,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -594,22 +659,25 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -618,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -644,10 +712,13 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -659,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -668,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -694,10 +765,13 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -709,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -718,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -744,60 +818,66 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>2148</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2148</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>108</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -818,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -844,60 +924,66 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>142</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>154</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -918,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -944,305 +1030,1810 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>317</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>628</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>628</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1950</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1965</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2017</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2029</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2042</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2103</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2157</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2210</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>341</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>565</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2210</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2223</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>565</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>620</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>620</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2223</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2274</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2274</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2287</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2356</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2594</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2854</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2854</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>3257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3257</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3473</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3473</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3666</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3666</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3898</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3898</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>4227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4227</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>4428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4428</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>4799</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>4799</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>102</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>266</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2064</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>191</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>334</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2064</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>2480</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
         <v>16</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>334</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2480</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2065</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2065</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>2916</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2916</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>4614</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4614</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>104</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>4653</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4653</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>4802</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>4802</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1997</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>2258</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2258</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/matches_output.xlsx
+++ b/matches_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LNHD1246\Desktop\RCAR Econsignation - Surya\RCAR Econsignation - Surya (copy)\Econsignation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B4B97-354D-4F9E-85DE-7F93B6867E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F60D5C-2E3C-4C20-BD0A-0EF277E5A959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>word</t>
   </si>
@@ -82,28 +82,73 @@
     <t>2022</t>
   </si>
   <si>
+    <t>19 سبتمبر 2022</t>
+  </si>
+  <si>
     <t>^(19(8[0-9]|9[0-9])|20(0[0-9]|1[0-9]|2[0-5]))$</t>
   </si>
   <si>
+    <t>19 ﺳﺒﺘﻤﺒﺮ 2022</t>
+  </si>
+  <si>
     <t>1982</t>
   </si>
   <si>
+    <t>6 ﻣﺎﻳﻮ 1982</t>
+  </si>
+  <si>
+    <t>19 ﻣﻨﺒﺘﻤﺒﺮ 2022</t>
+  </si>
+  <si>
+    <t>3 ﺃﻛﺘﻮﺑﺮ 2022</t>
+  </si>
+  <si>
     <t>1983</t>
   </si>
   <si>
+    <t>16 ﺃﺑﺮﻳﻞ 1983</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
+    <t>21 ﻣﺎﻯ 2019</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
+    <t>22 ديسمبر 2021</t>
+  </si>
+  <si>
+    <t>22 ﻓﺒﺮﺍﻳﺮ 2022</t>
+  </si>
+  <si>
+    <t>6 ﻣﺎﻱ 1982</t>
+  </si>
+  <si>
+    <t>16 أبريل 1983</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
+    <t>3 ﺩﻳﺴﻤﺒﺮ 2020</t>
+  </si>
+  <si>
+    <t>23 ماي 2022</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
+    <t>ﺑﺘﺎﺭﻳﺦ 1117 2014</t>
+  </si>
+  <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>تتراوح بين 2000</t>
   </si>
   <si>
     <t>ة</t>
@@ -531,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +928,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -936,10 +981,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -986,13 +1031,13 @@
         <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1042,10 +1087,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1095,10 +1140,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1148,10 +1193,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1198,13 +1243,13 @@
         <v>1965</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1251,13 +1296,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1304,13 +1349,13 @@
         <v>2029</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1360,10 +1405,10 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,10 +1458,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,10 +1511,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1561,13 @@
         <v>2210</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1561,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1614,13 @@
         <v>2223</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1667,13 @@
         <v>2274</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,10 +1776,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,10 +1829,10 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1826,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,10 +1935,10 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1932,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,10 +1988,10 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1985,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +2038,13 @@
         <v>3666</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,10 +2147,10 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,10 +2200,10 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2197,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2250,13 @@
         <v>4799</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2250,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,10 +2303,10 @@
         <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -2303,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,10 +2356,10 @@
         <v>2064</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>16</v>
@@ -2356,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,10 +2409,10 @@
         <v>2480</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -2409,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,10 +2462,10 @@
         <v>2065</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2462,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,10 +2515,10 @@
         <v>2916</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2515,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2568,10 @@
         <v>4614</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2568,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,10 +2621,10 @@
         <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -2621,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,10 +2674,10 @@
         <v>4653</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -2674,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2727,10 @@
         <v>4802</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -2727,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,10 +2780,10 @@
         <v>1997</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -2780,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,10 +2833,10 @@
         <v>2258</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -2833,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
